--- a/data13.xlsx
+++ b/data13.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thesis\Dataset\Unlabeled\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thesis\Sentiment_analysis_learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CF10C52-6EA1-44BE-94D2-CC1D9453FD0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1C994E-1926-4B12-A86B-B475FDB580F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,9 +35,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="119">
   <si>
-    <t>Name (click to view profile)</t>
-  </si>
-  <si>
     <t>Comment</t>
   </si>
   <si>
@@ -393,6 +390,9 @@
   </si>
   <si>
     <t>Label</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
 </sst>
 </file>
@@ -741,9 +741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" activeCellId="6" sqref="A1:A1048576 B1:B1048576 D1:D1048576 E1:E1048576 F1:F1048576 G1:G1048576 I1:I1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -753,21 +751,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -775,10 +773,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -786,10 +784,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
       </c>
       <c r="C4">
         <v>7</v>
@@ -797,10 +795,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -808,26 +806,26 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
         <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -835,10 +833,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -846,18 +844,18 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
         <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
         <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -865,18 +863,18 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
         <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
         <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
       </c>
       <c r="C13">
         <v>6</v>
@@ -884,18 +882,18 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
         <v>26</v>
-      </c>
-      <c r="B15" t="s">
-        <v>27</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -903,10 +901,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
         <v>28</v>
-      </c>
-      <c r="B16" t="s">
-        <v>29</v>
       </c>
       <c r="C16">
         <v>6</v>
@@ -914,10 +912,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
         <v>30</v>
-      </c>
-      <c r="B17" t="s">
-        <v>31</v>
       </c>
       <c r="C17">
         <v>6</v>
@@ -925,42 +923,42 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
         <v>32</v>
-      </c>
-      <c r="B18" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
         <v>34</v>
-      </c>
-      <c r="B19" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
         <v>36</v>
-      </c>
-      <c r="B20" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s">
         <v>38</v>
-      </c>
-      <c r="B21" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" t="s">
         <v>40</v>
-      </c>
-      <c r="B22" t="s">
-        <v>41</v>
       </c>
       <c r="C22">
         <v>7</v>
@@ -968,10 +966,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" t="s">
         <v>42</v>
-      </c>
-      <c r="B23" t="s">
-        <v>43</v>
       </c>
       <c r="C23">
         <v>3</v>
@@ -979,10 +977,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" t="s">
         <v>44</v>
-      </c>
-      <c r="B24" t="s">
-        <v>45</v>
       </c>
       <c r="C24">
         <v>7</v>
@@ -990,18 +988,18 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" t="s">
         <v>46</v>
-      </c>
-      <c r="B25" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" t="s">
         <v>48</v>
-      </c>
-      <c r="B26" t="s">
-        <v>49</v>
       </c>
       <c r="C26">
         <v>3</v>
@@ -1009,10 +1007,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" t="s">
         <v>50</v>
-      </c>
-      <c r="B27" t="s">
-        <v>51</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1020,18 +1018,18 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" t="s">
         <v>52</v>
-      </c>
-      <c r="B28" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" t="s">
         <v>54</v>
-      </c>
-      <c r="B29" t="s">
-        <v>55</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -1039,10 +1037,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" t="s">
         <v>56</v>
-      </c>
-      <c r="B30" t="s">
-        <v>57</v>
       </c>
       <c r="C30">
         <v>7</v>
@@ -1050,10 +1048,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" t="s">
         <v>58</v>
-      </c>
-      <c r="B31" t="s">
-        <v>59</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -1061,10 +1059,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" t="s">
         <v>60</v>
-      </c>
-      <c r="B32" t="s">
-        <v>61</v>
       </c>
       <c r="C32">
         <v>7</v>
@@ -1072,18 +1070,18 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" t="s">
         <v>62</v>
-      </c>
-      <c r="B33" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" t="s">
         <v>64</v>
-      </c>
-      <c r="B34" t="s">
-        <v>65</v>
       </c>
       <c r="C34">
         <v>2</v>
@@ -1091,18 +1089,18 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" t="s">
         <v>66</v>
-      </c>
-      <c r="B35" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" t="s">
         <v>68</v>
-      </c>
-      <c r="B36" t="s">
-        <v>69</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -1110,10 +1108,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" t="s">
         <v>70</v>
-      </c>
-      <c r="B37" t="s">
-        <v>71</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -1121,18 +1119,18 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" t="s">
         <v>72</v>
-      </c>
-      <c r="B38" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" t="s">
         <v>74</v>
-      </c>
-      <c r="B39" t="s">
-        <v>75</v>
       </c>
       <c r="C39">
         <v>5</v>
@@ -1140,10 +1138,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" t="s">
         <v>76</v>
-      </c>
-      <c r="B40" t="s">
-        <v>77</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -1151,10 +1149,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" t="s">
         <v>78</v>
-      </c>
-      <c r="B41" t="s">
-        <v>79</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -1162,18 +1160,18 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" t="s">
         <v>80</v>
-      </c>
-      <c r="B42" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" t="s">
         <v>82</v>
-      </c>
-      <c r="B43" t="s">
-        <v>83</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -1181,10 +1179,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" t="s">
         <v>84</v>
-      </c>
-      <c r="B44" t="s">
-        <v>85</v>
       </c>
       <c r="C44">
         <v>3</v>
@@ -1192,10 +1190,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>85</v>
+      </c>
+      <c r="B45" t="s">
         <v>86</v>
-      </c>
-      <c r="B45" t="s">
-        <v>87</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -1203,18 +1201,18 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46" t="s">
         <v>88</v>
-      </c>
-      <c r="B46" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" t="s">
         <v>90</v>
-      </c>
-      <c r="B47" t="s">
-        <v>91</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -1222,10 +1220,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B48" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C48">
         <v>6</v>
@@ -1233,18 +1231,18 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
+        <v>92</v>
+      </c>
+      <c r="B49" t="s">
         <v>93</v>
-      </c>
-      <c r="B49" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
+        <v>94</v>
+      </c>
+      <c r="B50" t="s">
         <v>95</v>
-      </c>
-      <c r="B50" t="s">
-        <v>96</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -1252,18 +1250,18 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
+        <v>96</v>
+      </c>
+      <c r="B51" t="s">
         <v>97</v>
-      </c>
-      <c r="B51" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
+        <v>98</v>
+      </c>
+      <c r="B52" t="s">
         <v>99</v>
-      </c>
-      <c r="B52" t="s">
-        <v>100</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -1271,18 +1269,18 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>100</v>
+      </c>
+      <c r="B53" t="s">
         <v>101</v>
-      </c>
-      <c r="B53" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
+        <v>102</v>
+      </c>
+      <c r="B54" t="s">
         <v>103</v>
-      </c>
-      <c r="B54" t="s">
-        <v>104</v>
       </c>
       <c r="C54">
         <v>6</v>
@@ -1290,18 +1288,18 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
+        <v>104</v>
+      </c>
+      <c r="B55" t="s">
         <v>105</v>
-      </c>
-      <c r="B55" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
+        <v>106</v>
+      </c>
+      <c r="B56" t="s">
         <v>107</v>
-      </c>
-      <c r="B56" t="s">
-        <v>108</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -1309,18 +1307,18 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
+        <v>108</v>
+      </c>
+      <c r="B57" t="s">
         <v>109</v>
-      </c>
-      <c r="B57" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B58" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -1328,18 +1326,18 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
+        <v>111</v>
+      </c>
+      <c r="B59" t="s">
         <v>112</v>
-      </c>
-      <c r="B59" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
+        <v>113</v>
+      </c>
+      <c r="B60" t="s">
         <v>114</v>
-      </c>
-      <c r="B60" t="s">
-        <v>115</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -1347,10 +1345,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
+        <v>115</v>
+      </c>
+      <c r="B61" t="s">
         <v>116</v>
-      </c>
-      <c r="B61" t="s">
-        <v>117</v>
       </c>
     </row>
   </sheetData>
